--- a/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
+++ b/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0DB5B2-795A-4977-922B-D7B0E8F988E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD7FA66-118D-4423-B50D-EDC23C474E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <t>01-01-2024</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -315,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
+++ b/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5E23C-9AEC-4565-B2E1-E78B1A228EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC47AC-DB0B-46ED-89F7-F5CEF2CA9544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>TH</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -248,7 +245,10 @@
     <t>01-01-2024</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -315,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +615,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,13 +667,13 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>17</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
@@ -856,7 +856,7 @@
         <v>51</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>42</v>
@@ -900,7 +900,7 @@
         <v>49</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3"/>
@@ -908,13 +908,13 @@
         <v>47</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>

--- a/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
+++ b/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC47AC-DB0B-46ED-89F7-F5CEF2CA9544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DA89F-974C-401F-BD63-D202FFE2AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>creationDate</t>
   </si>
@@ -248,14 +248,20 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>detail1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,6 +274,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,13 +302,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,60 +625,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="40" width="12.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.28515625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.7109375" style="1" customWidth="1"/>
-    <col min="46" max="50" width="2.7109375" style="1"/>
-    <col min="53" max="16384" width="2.7109375" style="1"/>
+    <col min="4" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="1" customWidth="1"/>
+    <col min="40" max="41" width="12.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" style="1" customWidth="1"/>
+    <col min="47" max="51" width="2.7109375" style="1"/>
+    <col min="54" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -678,141 +691,144 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>68</v>
@@ -821,106 +837,109 @@
         <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="2" t="s">
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
+++ b/Data Files/Input Validation/51. date/Auto_Date_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DA89F-974C-401F-BD63-D202FFE2AA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CBDA1F-FDC6-4288-9D86-BD785E1ED198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
